--- a/GC_pasiskirstymas.xlsx
+++ b/GC_pasiskirstymas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rimgaile\Bioinformatics_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B88DCDA-58F5-49A2-9784-204AB8930978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAB5E37-2EE7-4EB6-A499-452161A3CA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-2616" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,14 +438,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="lt-LT"/>
-              <a:t>G/C</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>G/C analiz</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="lt-LT" baseline="0"/>
-              <a:t> analizė</a:t>
+              <a:rPr lang="lt-LT"/>
+              <a:t>ė</a:t>
             </a:r>
-            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -480,17 +479,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.9315962033899834E-2"/>
-          <c:y val="0.10100694444444445"/>
-          <c:w val="0.91361419274045974"/>
-          <c:h val="0.79066573709536303"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -498,6 +487,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read'ų  skaičius</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -508,9 +508,317 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$102</c:f>
+              <c:strCache>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]Read''ai'!$C$3:$C$102</c:f>
+              <c:f>Sheet1!$C$3:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -818,347 +1126,8 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[1]Read''ai'!$C$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Read'ų  skaičius</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[1]Read''ai'!$B$3:$B$102</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="100"/>
-                      <c:pt idx="0">
-                        <c:v>0.00</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.02</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.03</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.04</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.05</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.06</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.07</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.08</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.09</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.11</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.12</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.13</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.14</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.17</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.18</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.19</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.20</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.21</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.22</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.23</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.24</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0.26</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0.27</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0.28</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.29</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0.30</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0.31</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>0.32</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.33</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.34</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.35</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0.36</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.37</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0.38</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0.39</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>0.40</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0.41</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0.42</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0.43</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0.44</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0.45</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0.46</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>0.47</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0.48</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.49</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>0.50</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>0.51</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>0.52</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>0.53</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0.54</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>0.55</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>0.56</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>0.57</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>0.58</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>0.59</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>0.60</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>0.61</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>0.62</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>0.63</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>0.64</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>0.66</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>0.67</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>0.68</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>0.69</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>0.70</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>0.71</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>0.72</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>0.73</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>0.74</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>0.75</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>0.76</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>0.77</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>0.78</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>0.79</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>0.80</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>0.81</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>0.82</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>0.83</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>0.84</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>0.85</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>0.86</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>0.87</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>0.88</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>0.89</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>0.90</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>0.91</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>0.92</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>0.93</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>0.94</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>0.95</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>0.96</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>0.97</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>0.98</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>0.99</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2256-4C2A-9B66-0CACB15658A5}"/>
+              <c16:uniqueId val="{00000000-12FD-4138-9645-294D1CC46F37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1172,11 +1141,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="608759056"/>
-        <c:axId val="608759384"/>
+        <c:axId val="487975544"/>
+        <c:axId val="487976504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608759056"/>
+        <c:axId val="487975544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1154,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1200,7 +1169,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1219,7 +1188,7 @@
             <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608759384"/>
+        <c:crossAx val="487976504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="608759384"/>
+        <c:axId val="487976504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1247,7 @@
             <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608759056"/>
+        <c:crossAx val="487975544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1309,8 +1278,9 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1">
-          <a:alpha val="95000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1883,28 +1853,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358716</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10D0DAB-8A55-4F34-BD83-FDCB0B9CD029}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F047FC-3190-4802-A501-76D6F2CDB4A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2199,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
